--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1741,12 +1741,28 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2167,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -2175,7 +2191,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2191,6 +2207,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2205,6 +2224,12 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2317,6 +2342,12 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2386,6 +2417,12 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>577</v>
+      </c>
+      <c r="F15" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="769">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1756,6 +1756,579 @@
   </si>
   <si>
     <t>54000</t>
+  </si>
+  <si>
+    <t>GSMH</t>
+  </si>
+  <si>
+    <t>500$</t>
+  </si>
+  <si>
+    <t>525$</t>
+  </si>
+  <si>
+    <t>550$</t>
+  </si>
+  <si>
+    <t>575$</t>
+  </si>
+  <si>
+    <t>600$</t>
+  </si>
+  <si>
+    <t>625$</t>
+  </si>
+  <si>
+    <t>650$</t>
+  </si>
+  <si>
+    <t>675$</t>
+  </si>
+  <si>
+    <t>700$</t>
+  </si>
+  <si>
+    <t>725$</t>
+  </si>
+  <si>
+    <t>750$</t>
+  </si>
+  <si>
+    <t>775$</t>
+  </si>
+  <si>
+    <t>800$</t>
+  </si>
+  <si>
+    <t>825$</t>
+  </si>
+  <si>
+    <t>850$</t>
+  </si>
+  <si>
+    <t>875$</t>
+  </si>
+  <si>
+    <t>900$</t>
+  </si>
+  <si>
+    <t>925$</t>
+  </si>
+  <si>
+    <t>950$</t>
+  </si>
+  <si>
+    <t>975$</t>
+  </si>
+  <si>
+    <t>1000$</t>
+  </si>
+  <si>
+    <t>1025$</t>
+  </si>
+  <si>
+    <t>1050$</t>
+  </si>
+  <si>
+    <t>1075$</t>
+  </si>
+  <si>
+    <t>1100$</t>
+  </si>
+  <si>
+    <t>1125$</t>
+  </si>
+  <si>
+    <t>1150$</t>
+  </si>
+  <si>
+    <t>1175$</t>
+  </si>
+  <si>
+    <t>1200$</t>
+  </si>
+  <si>
+    <t>1225$</t>
+  </si>
+  <si>
+    <t>1250$</t>
+  </si>
+  <si>
+    <t>1275$</t>
+  </si>
+  <si>
+    <t>1300$</t>
+  </si>
+  <si>
+    <t>1325$</t>
+  </si>
+  <si>
+    <t>1350$</t>
+  </si>
+  <si>
+    <t>1375$</t>
+  </si>
+  <si>
+    <t>1400$</t>
+  </si>
+  <si>
+    <t>1425$</t>
+  </si>
+  <si>
+    <t>1450$</t>
+  </si>
+  <si>
+    <t>1475$</t>
+  </si>
+  <si>
+    <t>1500$</t>
+  </si>
+  <si>
+    <t>1525$</t>
+  </si>
+  <si>
+    <t>1550$</t>
+  </si>
+  <si>
+    <t>1575$</t>
+  </si>
+  <si>
+    <t>1600$</t>
+  </si>
+  <si>
+    <t>1625$</t>
+  </si>
+  <si>
+    <t>1650$</t>
+  </si>
+  <si>
+    <t>1675$</t>
+  </si>
+  <si>
+    <t>1700$</t>
+  </si>
+  <si>
+    <t>1725$</t>
+  </si>
+  <si>
+    <t>1750$</t>
+  </si>
+  <si>
+    <t>1775$</t>
+  </si>
+  <si>
+    <t>1800$</t>
+  </si>
+  <si>
+    <t>1825$</t>
+  </si>
+  <si>
+    <t>1850$</t>
+  </si>
+  <si>
+    <t>1875$</t>
+  </si>
+  <si>
+    <t>1900$</t>
+  </si>
+  <si>
+    <t>1925$</t>
+  </si>
+  <si>
+    <t>1950$</t>
+  </si>
+  <si>
+    <t>1975$</t>
+  </si>
+  <si>
+    <t>2000$</t>
+  </si>
+  <si>
+    <t>2025$</t>
+  </si>
+  <si>
+    <t>2050$</t>
+  </si>
+  <si>
+    <t>2075$</t>
+  </si>
+  <si>
+    <t>2100$</t>
+  </si>
+  <si>
+    <t>2125$</t>
+  </si>
+  <si>
+    <t>2150$</t>
+  </si>
+  <si>
+    <t>2175$</t>
+  </si>
+  <si>
+    <t>2200$</t>
+  </si>
+  <si>
+    <t>2225$</t>
+  </si>
+  <si>
+    <t>2250$</t>
+  </si>
+  <si>
+    <t>2275$</t>
+  </si>
+  <si>
+    <t>2300$</t>
+  </si>
+  <si>
+    <t>2325$</t>
+  </si>
+  <si>
+    <t>2350$</t>
+  </si>
+  <si>
+    <t>2375$</t>
+  </si>
+  <si>
+    <t>2400$</t>
+  </si>
+  <si>
+    <t>2425$</t>
+  </si>
+  <si>
+    <t>2450$</t>
+  </si>
+  <si>
+    <t>2475$</t>
+  </si>
+  <si>
+    <t>2500$</t>
+  </si>
+  <si>
+    <t>2525$</t>
+  </si>
+  <si>
+    <t>2550$</t>
+  </si>
+  <si>
+    <t>2575$</t>
+  </si>
+  <si>
+    <t>2600$</t>
+  </si>
+  <si>
+    <t>2625$</t>
+  </si>
+  <si>
+    <t>2650$</t>
+  </si>
+  <si>
+    <t>2675$</t>
+  </si>
+  <si>
+    <t>2700$</t>
+  </si>
+  <si>
+    <t>2725$</t>
+  </si>
+  <si>
+    <t>2750$</t>
+  </si>
+  <si>
+    <t>2775$</t>
+  </si>
+  <si>
+    <t>2800$</t>
+  </si>
+  <si>
+    <t>2825$</t>
+  </si>
+  <si>
+    <t>2850$</t>
+  </si>
+  <si>
+    <t>2875$</t>
+  </si>
+  <si>
+    <t>2900$</t>
+  </si>
+  <si>
+    <t>2925$</t>
+  </si>
+  <si>
+    <t>2950$</t>
+  </si>
+  <si>
+    <t>2975$</t>
+  </si>
+  <si>
+    <t>3000$</t>
+  </si>
+  <si>
+    <t>3025$</t>
+  </si>
+  <si>
+    <t>3050$</t>
+  </si>
+  <si>
+    <t>3075$</t>
+  </si>
+  <si>
+    <t>3100$</t>
+  </si>
+  <si>
+    <t>3125$</t>
+  </si>
+  <si>
+    <t>3150$</t>
+  </si>
+  <si>
+    <t>3175$</t>
+  </si>
+  <si>
+    <t>3200$</t>
+  </si>
+  <si>
+    <t>3225$</t>
+  </si>
+  <si>
+    <t>3250$</t>
+  </si>
+  <si>
+    <t>3275$</t>
+  </si>
+  <si>
+    <t>3300$</t>
+  </si>
+  <si>
+    <t>3325$</t>
+  </si>
+  <si>
+    <t>3350$</t>
+  </si>
+  <si>
+    <t>3375$</t>
+  </si>
+  <si>
+    <t>3400$</t>
+  </si>
+  <si>
+    <t>3425$</t>
+  </si>
+  <si>
+    <t>3450$</t>
+  </si>
+  <si>
+    <t>3475$</t>
+  </si>
+  <si>
+    <t>3500$</t>
+  </si>
+  <si>
+    <t>3525$</t>
+  </si>
+  <si>
+    <t>3550$</t>
+  </si>
+  <si>
+    <t>3575$</t>
+  </si>
+  <si>
+    <t>3600$</t>
+  </si>
+  <si>
+    <t>3625$</t>
+  </si>
+  <si>
+    <t>3650$</t>
+  </si>
+  <si>
+    <t>3675$</t>
+  </si>
+  <si>
+    <t>3700$</t>
+  </si>
+  <si>
+    <t>3725$</t>
+  </si>
+  <si>
+    <t>3750$</t>
+  </si>
+  <si>
+    <t>3775$</t>
+  </si>
+  <si>
+    <t>3800$</t>
+  </si>
+  <si>
+    <t>3825$</t>
+  </si>
+  <si>
+    <t>3850$</t>
+  </si>
+  <si>
+    <t>3875$</t>
+  </si>
+  <si>
+    <t>3900$</t>
+  </si>
+  <si>
+    <t>3925$</t>
+  </si>
+  <si>
+    <t>3950$</t>
+  </si>
+  <si>
+    <t>3975$</t>
+  </si>
+  <si>
+    <t>4000$</t>
+  </si>
+  <si>
+    <t>4025$</t>
+  </si>
+  <si>
+    <t>4050$</t>
+  </si>
+  <si>
+    <t>4075$</t>
+  </si>
+  <si>
+    <t>4100$</t>
+  </si>
+  <si>
+    <t>4125$</t>
+  </si>
+  <si>
+    <t>4150$</t>
+  </si>
+  <si>
+    <t>4175$</t>
+  </si>
+  <si>
+    <t>4200$</t>
+  </si>
+  <si>
+    <t>4225$</t>
+  </si>
+  <si>
+    <t>4250$</t>
+  </si>
+  <si>
+    <t>4275$</t>
+  </si>
+  <si>
+    <t>4300$</t>
+  </si>
+  <si>
+    <t>4325$</t>
+  </si>
+  <si>
+    <t>4350$</t>
+  </si>
+  <si>
+    <t>4375$</t>
+  </si>
+  <si>
+    <t>4400$</t>
+  </si>
+  <si>
+    <t>4425$</t>
+  </si>
+  <si>
+    <t>4450$</t>
+  </si>
+  <si>
+    <t>4475$</t>
+  </si>
+  <si>
+    <t>4500$</t>
+  </si>
+  <si>
+    <t>4525$</t>
+  </si>
+  <si>
+    <t>4550$</t>
+  </si>
+  <si>
+    <t>4575$</t>
+  </si>
+  <si>
+    <t>4600$</t>
+  </si>
+  <si>
+    <t>4625$</t>
+  </si>
+  <si>
+    <t>4650$</t>
+  </si>
+  <si>
+    <t>4675$</t>
+  </si>
+  <si>
+    <t>4700$</t>
+  </si>
+  <si>
+    <t>4725$</t>
+  </si>
+  <si>
+    <t>4750$</t>
+  </si>
+  <si>
+    <t>4775$</t>
+  </si>
+  <si>
+    <t>4800$</t>
+  </si>
+  <si>
+    <t>4825$</t>
+  </si>
+  <si>
+    <t>4850$</t>
+  </si>
+  <si>
+    <t>4875$</t>
+  </si>
+  <si>
+    <t>4900$</t>
+  </si>
+  <si>
+    <t>4925$</t>
+  </si>
+  <si>
+    <t>4950$</t>
+  </si>
+  <si>
+    <t>4975$</t>
+  </si>
+  <si>
+    <t>5000$</t>
+  </si>
+  <si>
+    <t>5025$</t>
+  </si>
+  <si>
+    <t>5050$</t>
+  </si>
+  <si>
+    <t>5075$</t>
+  </si>
+  <si>
+    <t>5100$</t>
+  </si>
+  <si>
+    <t>5125$</t>
+  </si>
+  <si>
+    <t>5150$</t>
+  </si>
+  <si>
+    <t>5175$</t>
+  </si>
+  <si>
+    <t>5200$</t>
+  </si>
+  <si>
+    <t>5225$</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2225,7 +2798,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F2" t="s">
         <v>574</v>
@@ -2244,6 +2817,9 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2258,6 +2834,9 @@
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -2272,6 +2851,9 @@
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E5" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2286,6 +2868,9 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -2300,6 +2885,9 @@
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2314,6 +2902,9 @@
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="E8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -2328,6 +2919,9 @@
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="E9" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -2343,7 +2937,7 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F10" t="s">
         <v>574</v>
@@ -2362,6 +2956,9 @@
       <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="E11" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -2376,6 +2973,9 @@
       <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="E12" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -2390,6 +2990,9 @@
       <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="E13" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2404,6 +3007,9 @@
       <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="E14" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -2419,7 +3025,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="F15" t="s">
         <v>574</v>
@@ -2438,6 +3044,9 @@
       <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="E16" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -2452,6 +3061,9 @@
       <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="E17" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -2466,6 +3078,9 @@
       <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="E18" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -2480,6 +3095,9 @@
       <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="E19" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -2494,6 +3112,9 @@
       <c r="D20" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="E20" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -2508,6 +3129,9 @@
       <c r="D21" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="E21" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -2522,6 +3146,9 @@
       <c r="D22" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="E22" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -2536,6 +3163,9 @@
       <c r="D23" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="E23" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -2550,6 +3180,9 @@
       <c r="D24" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="E24" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -2564,6 +3197,9 @@
       <c r="D25" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="E25" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -2578,6 +3214,9 @@
       <c r="D26" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="E26" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -2592,6 +3231,9 @@
       <c r="D27" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="E27" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -2606,6 +3248,9 @@
       <c r="D28" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="E28" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -2620,6 +3265,9 @@
       <c r="D29" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="E29" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -2634,6 +3282,9 @@
       <c r="D30" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="E30" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -2648,6 +3299,9 @@
       <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="E31" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -2662,6 +3316,9 @@
       <c r="D32" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="E32" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -2676,6 +3333,9 @@
       <c r="D33" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="E33" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -2690,6 +3350,9 @@
       <c r="D34" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="E34" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2704,6 +3367,9 @@
       <c r="D35" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="E35" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -2718,6 +3384,9 @@
       <c r="D36" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="E36" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2732,6 +3401,9 @@
       <c r="D37" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="E37" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -2746,6 +3418,9 @@
       <c r="D38" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="E38" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -2760,6 +3435,9 @@
       <c r="D39" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="E39" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -2774,6 +3452,9 @@
       <c r="D40" s="8" t="s">
         <v>122</v>
       </c>
+      <c r="E40" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -2788,6 +3469,9 @@
       <c r="D41" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="E41" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
@@ -2802,6 +3486,9 @@
       <c r="D42" s="8" t="s">
         <v>128</v>
       </c>
+      <c r="E42" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -2816,6 +3503,9 @@
       <c r="D43" s="7" t="s">
         <v>131</v>
       </c>
+      <c r="E43" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -2830,6 +3520,9 @@
       <c r="D44" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="E44" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -2844,6 +3537,9 @@
       <c r="D45" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="E45" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -2858,6 +3554,9 @@
       <c r="D46" s="8" t="s">
         <v>143</v>
       </c>
+      <c r="E46" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -2872,6 +3571,9 @@
       <c r="D47" s="7" t="s">
         <v>147</v>
       </c>
+      <c r="E47" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
@@ -2886,6 +3588,9 @@
       <c r="D48" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="E48" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
@@ -2900,6 +3605,9 @@
       <c r="D49" s="7" t="s">
         <v>151</v>
       </c>
+      <c r="E49" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -2914,6 +3622,9 @@
       <c r="D50" s="8" t="s">
         <v>154</v>
       </c>
+      <c r="E50" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
@@ -2928,6 +3639,9 @@
       <c r="D51" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="E51" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -2942,6 +3656,9 @@
       <c r="D52" s="8" t="s">
         <v>162</v>
       </c>
+      <c r="E52" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
@@ -2956,6 +3673,9 @@
       <c r="D53" s="7" t="s">
         <v>166</v>
       </c>
+      <c r="E53" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -2970,6 +3690,9 @@
       <c r="D54" s="8" t="s">
         <v>168</v>
       </c>
+      <c r="E54" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -2984,6 +3707,9 @@
       <c r="D55" s="7" t="s">
         <v>170</v>
       </c>
+      <c r="E55" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
@@ -2998,6 +3724,9 @@
       <c r="D56" s="8" t="s">
         <v>173</v>
       </c>
+      <c r="E56" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
@@ -3012,6 +3741,9 @@
       <c r="D57" s="7" t="s">
         <v>176</v>
       </c>
+      <c r="E57" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
@@ -3026,6 +3758,9 @@
       <c r="D58" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="E58" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
@@ -3040,6 +3775,9 @@
       <c r="D59" s="7" t="s">
         <v>182</v>
       </c>
+      <c r="E59" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -3054,6 +3792,9 @@
       <c r="D60" s="8" t="s">
         <v>184</v>
       </c>
+      <c r="E60" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
@@ -3068,6 +3809,9 @@
       <c r="D61" s="7" t="s">
         <v>187</v>
       </c>
+      <c r="E61" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -3082,6 +3826,9 @@
       <c r="D62" s="8" t="s">
         <v>190</v>
       </c>
+      <c r="E62" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -3096,6 +3843,9 @@
       <c r="D63" s="7" t="s">
         <v>192</v>
       </c>
+      <c r="E63" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
@@ -3110,6 +3860,9 @@
       <c r="D64" s="8" t="s">
         <v>197</v>
       </c>
+      <c r="E64" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
@@ -3124,6 +3877,9 @@
       <c r="D65" s="7" t="s">
         <v>199</v>
       </c>
+      <c r="E65" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
@@ -3138,6 +3894,9 @@
       <c r="D66" s="8" t="s">
         <v>202</v>
       </c>
+      <c r="E66" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -3152,6 +3911,9 @@
       <c r="D67" s="7" t="s">
         <v>207</v>
       </c>
+      <c r="E67" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -3166,6 +3928,9 @@
       <c r="D68" s="8" t="s">
         <v>209</v>
       </c>
+      <c r="E68" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
@@ -3180,6 +3945,9 @@
       <c r="D69" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="E69" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
@@ -3194,6 +3962,9 @@
       <c r="D70" s="8" t="s">
         <v>213</v>
       </c>
+      <c r="E70" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
@@ -3208,6 +3979,9 @@
       <c r="D71" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="E71" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -3222,6 +3996,9 @@
       <c r="D72" s="8" t="s">
         <v>219</v>
       </c>
+      <c r="E72" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
@@ -3236,6 +4013,9 @@
       <c r="D73" s="7" t="s">
         <v>221</v>
       </c>
+      <c r="E73" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -3250,6 +4030,9 @@
       <c r="D74" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="E74" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
@@ -3264,6 +4047,9 @@
       <c r="D75" s="7" t="s">
         <v>227</v>
       </c>
+      <c r="E75" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
@@ -3278,6 +4064,9 @@
       <c r="D76" s="8" t="s">
         <v>229</v>
       </c>
+      <c r="E76" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
@@ -3292,6 +4081,9 @@
       <c r="D77" s="7" t="s">
         <v>232</v>
       </c>
+      <c r="E77" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
@@ -3306,6 +4098,9 @@
       <c r="D78" s="8" t="s">
         <v>237</v>
       </c>
+      <c r="E78" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
@@ -3320,6 +4115,9 @@
       <c r="D79" s="7" t="s">
         <v>241</v>
       </c>
+      <c r="E79" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
@@ -3334,6 +4132,9 @@
       <c r="D80" s="8" t="s">
         <v>245</v>
       </c>
+      <c r="E80" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
@@ -3348,6 +4149,9 @@
       <c r="D81" s="7" t="s">
         <v>247</v>
       </c>
+      <c r="E81" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
@@ -3362,6 +4166,9 @@
       <c r="D82" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="E82" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
@@ -3376,6 +4183,9 @@
       <c r="D83" s="7" t="s">
         <v>255</v>
       </c>
+      <c r="E83" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
@@ -3390,6 +4200,9 @@
       <c r="D84" s="8" t="s">
         <v>257</v>
       </c>
+      <c r="E84" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
@@ -3404,6 +4217,9 @@
       <c r="D85" s="7" t="s">
         <v>260</v>
       </c>
+      <c r="E85" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
@@ -3418,6 +4234,9 @@
       <c r="D86" s="8" t="s">
         <v>263</v>
       </c>
+      <c r="E86" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
@@ -3432,6 +4251,9 @@
       <c r="D87" s="7" t="s">
         <v>266</v>
       </c>
+      <c r="E87" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
@@ -3446,6 +4268,9 @@
       <c r="D88" s="8" t="s">
         <v>269</v>
       </c>
+      <c r="E88" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
@@ -3460,6 +4285,9 @@
       <c r="D89" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="E89" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
@@ -3474,6 +4302,9 @@
       <c r="D90" s="8" t="s">
         <v>273</v>
       </c>
+      <c r="E90" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
@@ -3488,6 +4319,9 @@
       <c r="D91" s="7" t="s">
         <v>278</v>
       </c>
+      <c r="E91" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
@@ -3502,6 +4336,9 @@
       <c r="D92" s="8" t="s">
         <v>281</v>
       </c>
+      <c r="E92" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
@@ -3516,6 +4353,9 @@
       <c r="D93" s="7" t="s">
         <v>285</v>
       </c>
+      <c r="E93" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
@@ -3530,6 +4370,9 @@
       <c r="D94" s="8" t="s">
         <v>287</v>
       </c>
+      <c r="E94" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
@@ -3544,6 +4387,9 @@
       <c r="D95" s="7" t="s">
         <v>289</v>
       </c>
+      <c r="E95" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
@@ -3558,6 +4404,9 @@
       <c r="D96" s="8" t="s">
         <v>294</v>
       </c>
+      <c r="E96" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
@@ -3572,6 +4421,9 @@
       <c r="D97" s="7" t="s">
         <v>297</v>
       </c>
+      <c r="E97" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
@@ -3586,6 +4438,9 @@
       <c r="D98" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="E98" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
@@ -3600,6 +4455,9 @@
       <c r="D99" s="7" t="s">
         <v>301</v>
       </c>
+      <c r="E99" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
@@ -3614,6 +4472,9 @@
       <c r="D100" s="8" t="s">
         <v>304</v>
       </c>
+      <c r="E100" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
@@ -3628,6 +4489,9 @@
       <c r="D101" s="7" t="s">
         <v>308</v>
       </c>
+      <c r="E101" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
@@ -3642,6 +4506,9 @@
       <c r="D102" s="8" t="s">
         <v>310</v>
       </c>
+      <c r="E102" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
@@ -3656,6 +4523,9 @@
       <c r="D103" s="7" t="s">
         <v>313</v>
       </c>
+      <c r="E103" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
@@ -3670,6 +4540,9 @@
       <c r="D104" s="8" t="s">
         <v>316</v>
       </c>
+      <c r="E104" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
@@ -3684,6 +4557,9 @@
       <c r="D105" s="7" t="s">
         <v>319</v>
       </c>
+      <c r="E105" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -3698,6 +4574,9 @@
       <c r="D106" s="8" t="s">
         <v>322</v>
       </c>
+      <c r="E106" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
@@ -3712,6 +4591,9 @@
       <c r="D107" s="7" t="s">
         <v>324</v>
       </c>
+      <c r="E107" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
@@ -3726,6 +4608,9 @@
       <c r="D108" s="8" t="s">
         <v>326</v>
       </c>
+      <c r="E108" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
@@ -3740,6 +4625,9 @@
       <c r="D109" s="7" t="s">
         <v>331</v>
       </c>
+      <c r="E109" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
@@ -3754,6 +4642,9 @@
       <c r="D110" s="8" t="s">
         <v>334</v>
       </c>
+      <c r="E110" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
@@ -3768,6 +4659,9 @@
       <c r="D111" s="7" t="s">
         <v>336</v>
       </c>
+      <c r="E111" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -3782,6 +4676,9 @@
       <c r="D112" s="8" t="s">
         <v>339</v>
       </c>
+      <c r="E112" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
@@ -3796,6 +4693,9 @@
       <c r="D113" s="7" t="s">
         <v>343</v>
       </c>
+      <c r="E113" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
@@ -3810,6 +4710,9 @@
       <c r="D114" s="8" t="s">
         <v>345</v>
       </c>
+      <c r="E114" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
@@ -3824,6 +4727,9 @@
       <c r="D115" s="7" t="s">
         <v>349</v>
       </c>
+      <c r="E115" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
@@ -3838,6 +4744,9 @@
       <c r="D116" s="8" t="s">
         <v>351</v>
       </c>
+      <c r="E116" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
@@ -3852,6 +4761,9 @@
       <c r="D117" s="7" t="s">
         <v>354</v>
       </c>
+      <c r="E117" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
@@ -3866,6 +4778,9 @@
       <c r="D118" s="8" t="s">
         <v>357</v>
       </c>
+      <c r="E118" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
@@ -3880,6 +4795,9 @@
       <c r="D119" s="7" t="s">
         <v>361</v>
       </c>
+      <c r="E119" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
@@ -3894,6 +4812,9 @@
       <c r="D120" s="8" t="s">
         <v>363</v>
       </c>
+      <c r="E120" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
@@ -3908,6 +4829,9 @@
       <c r="D121" s="7" t="s">
         <v>367</v>
       </c>
+      <c r="E121" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
@@ -3922,6 +4846,9 @@
       <c r="D122" s="8" t="s">
         <v>370</v>
       </c>
+      <c r="E122" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
@@ -3936,6 +4863,9 @@
       <c r="D123" s="7" t="s">
         <v>372</v>
       </c>
+      <c r="E123" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -3950,6 +4880,9 @@
       <c r="D124" s="8" t="s">
         <v>375</v>
       </c>
+      <c r="E124" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
@@ -3964,6 +4897,9 @@
       <c r="D125" s="7" t="s">
         <v>378</v>
       </c>
+      <c r="E125" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -3978,6 +4914,9 @@
       <c r="D126" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="E126" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
@@ -3992,6 +4931,9 @@
       <c r="D127" s="7" t="s">
         <v>384</v>
       </c>
+      <c r="E127" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
@@ -4006,6 +4948,9 @@
       <c r="D128" s="8" t="s">
         <v>387</v>
       </c>
+      <c r="E128" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
@@ -4020,6 +4965,9 @@
       <c r="D129" s="7" t="s">
         <v>392</v>
       </c>
+      <c r="E129" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
@@ -4034,6 +4982,9 @@
       <c r="D130" s="8" t="s">
         <v>395</v>
       </c>
+      <c r="E130" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
@@ -4048,6 +4999,9 @@
       <c r="D131" s="7" t="s">
         <v>397</v>
       </c>
+      <c r="E131" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -4062,6 +5016,9 @@
       <c r="D132" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="E132" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
@@ -4076,6 +5033,9 @@
       <c r="D133" s="7" t="s">
         <v>401</v>
       </c>
+      <c r="E133" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
@@ -4090,6 +5050,9 @@
       <c r="D134" s="8" t="s">
         <v>404</v>
       </c>
+      <c r="E134" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
@@ -4104,6 +5067,9 @@
       <c r="D135" s="7" t="s">
         <v>406</v>
       </c>
+      <c r="E135" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
@@ -4118,6 +5084,9 @@
       <c r="D136" s="8" t="s">
         <v>408</v>
       </c>
+      <c r="E136" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
@@ -4132,6 +5101,9 @@
       <c r="D137" s="7" t="s">
         <v>413</v>
       </c>
+      <c r="E137" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
@@ -4146,6 +5118,9 @@
       <c r="D138" s="8" t="s">
         <v>417</v>
       </c>
+      <c r="E138" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
@@ -4160,6 +5135,9 @@
       <c r="D139" s="7" t="s">
         <v>419</v>
       </c>
+      <c r="E139" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
@@ -4174,6 +5152,9 @@
       <c r="D140" s="8" t="s">
         <v>424</v>
       </c>
+      <c r="E140" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
@@ -4188,6 +5169,9 @@
       <c r="D141" s="7" t="s">
         <v>428</v>
       </c>
+      <c r="E141" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -4202,6 +5186,9 @@
       <c r="D142" s="8" t="s">
         <v>430</v>
       </c>
+      <c r="E142" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
@@ -4216,6 +5203,9 @@
       <c r="D143" s="7" t="s">
         <v>433</v>
       </c>
+      <c r="E143" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
@@ -4230,6 +5220,9 @@
       <c r="D144" s="8" t="s">
         <v>436</v>
       </c>
+      <c r="E144" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="145" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
@@ -4244,6 +5237,9 @@
       <c r="D145" s="7" t="s">
         <v>438</v>
       </c>
+      <c r="E145" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
@@ -4258,6 +5254,9 @@
       <c r="D146" s="8" t="s">
         <v>441</v>
       </c>
+      <c r="E146" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
@@ -4272,6 +5271,9 @@
       <c r="D147" s="7" t="s">
         <v>442</v>
       </c>
+      <c r="E147" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
@@ -4286,6 +5288,9 @@
       <c r="D148" s="8" t="s">
         <v>444</v>
       </c>
+      <c r="E148" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
@@ -4300,6 +5305,9 @@
       <c r="D149" s="7" t="s">
         <v>449</v>
       </c>
+      <c r="E149" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
@@ -4314,6 +5322,9 @@
       <c r="D150" s="8" t="s">
         <v>451</v>
       </c>
+      <c r="E150" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
@@ -4328,6 +5339,9 @@
       <c r="D151" s="7" t="s">
         <v>455</v>
       </c>
+      <c r="E151" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
@@ -4342,6 +5356,9 @@
       <c r="D152" s="8" t="s">
         <v>457</v>
       </c>
+      <c r="E152" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
@@ -4356,6 +5373,9 @@
       <c r="D153" s="7" t="s">
         <v>460</v>
       </c>
+      <c r="E153" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -4370,6 +5390,9 @@
       <c r="D154" s="8" t="s">
         <v>462</v>
       </c>
+      <c r="E154" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
@@ -4384,6 +5407,9 @@
       <c r="D155" s="7" t="s">
         <v>464</v>
       </c>
+      <c r="E155" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
@@ -4398,6 +5424,9 @@
       <c r="D156" s="8" t="s">
         <v>467</v>
       </c>
+      <c r="E156" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
@@ -4412,6 +5441,9 @@
       <c r="D157" s="7" t="s">
         <v>470</v>
       </c>
+      <c r="E157" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
@@ -4426,6 +5458,9 @@
       <c r="D158" s="8" t="s">
         <v>475</v>
       </c>
+      <c r="E158" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
@@ -4440,6 +5475,9 @@
       <c r="D159" s="7" t="s">
         <v>477</v>
       </c>
+      <c r="E159" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
@@ -4454,6 +5492,9 @@
       <c r="D160" s="8" t="s">
         <v>480</v>
       </c>
+      <c r="E160" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
@@ -4468,6 +5509,9 @@
       <c r="D161" s="7" t="s">
         <v>483</v>
       </c>
+      <c r="E161" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
@@ -4482,6 +5526,9 @@
       <c r="D162" s="8" t="s">
         <v>486</v>
       </c>
+      <c r="E162" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
@@ -4496,6 +5543,9 @@
       <c r="D163" s="7" t="s">
         <v>488</v>
       </c>
+      <c r="E163" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
@@ -4510,6 +5560,9 @@
       <c r="D164" s="8" t="s">
         <v>491</v>
       </c>
+      <c r="E164" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
@@ -4524,6 +5577,9 @@
       <c r="D165" s="7" t="s">
         <v>495</v>
       </c>
+      <c r="E165" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
@@ -4538,6 +5594,9 @@
       <c r="D166" s="8" t="s">
         <v>497</v>
       </c>
+      <c r="E166" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
@@ -4552,6 +5611,9 @@
       <c r="D167" s="7" t="s">
         <v>502</v>
       </c>
+      <c r="E167" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
@@ -4566,6 +5628,9 @@
       <c r="D168" s="8" t="s">
         <v>506</v>
       </c>
+      <c r="E168" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
@@ -4580,6 +5645,9 @@
       <c r="D169" s="7" t="s">
         <v>510</v>
       </c>
+      <c r="E169" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
@@ -4594,6 +5662,9 @@
       <c r="D170" s="8" t="s">
         <v>512</v>
       </c>
+      <c r="E170" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
@@ -4608,6 +5679,9 @@
       <c r="D171" s="7" t="s">
         <v>515</v>
       </c>
+      <c r="E171" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
@@ -4622,6 +5696,9 @@
       <c r="D172" s="8" t="s">
         <v>518</v>
       </c>
+      <c r="E172" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
@@ -4636,6 +5713,9 @@
       <c r="D173" s="7" t="s">
         <v>520</v>
       </c>
+      <c r="E173" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
@@ -4650,6 +5730,9 @@
       <c r="D174" s="8" t="s">
         <v>524</v>
       </c>
+      <c r="E174" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
@@ -4664,6 +5747,9 @@
       <c r="D175" s="7" t="s">
         <v>526</v>
       </c>
+      <c r="E175" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
@@ -4678,6 +5764,9 @@
       <c r="D176" s="8" t="s">
         <v>531</v>
       </c>
+      <c r="E176" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
@@ -4692,6 +5781,9 @@
       <c r="D177" s="7" t="s">
         <v>533</v>
       </c>
+      <c r="E177" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
@@ -4706,6 +5798,9 @@
       <c r="D178" s="8" t="s">
         <v>535</v>
       </c>
+      <c r="E178" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
@@ -4720,6 +5815,9 @@
       <c r="D179" s="7" t="s">
         <v>537</v>
       </c>
+      <c r="E179" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
@@ -4734,6 +5832,9 @@
       <c r="D180" s="8" t="s">
         <v>542</v>
       </c>
+      <c r="E180" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
@@ -4748,6 +5849,9 @@
       <c r="D181" s="7" t="s">
         <v>546</v>
       </c>
+      <c r="E181" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
@@ -4762,6 +5866,9 @@
       <c r="D182" s="8" t="s">
         <v>548</v>
       </c>
+      <c r="E182" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
@@ -4776,6 +5883,9 @@
       <c r="D183" s="7" t="s">
         <v>551</v>
       </c>
+      <c r="E183" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -4790,6 +5900,9 @@
       <c r="D184" s="8" t="s">
         <v>555</v>
       </c>
+      <c r="E184" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
@@ -4804,6 +5917,9 @@
       <c r="D185" s="7" t="s">
         <v>557</v>
       </c>
+      <c r="E185" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
@@ -4818,6 +5934,9 @@
       <c r="D186" s="8" t="s">
         <v>559</v>
       </c>
+      <c r="E186" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
@@ -4832,6 +5951,9 @@
       <c r="D187" s="7" t="s">
         <v>561</v>
       </c>
+      <c r="E187" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
@@ -4846,6 +5968,9 @@
       <c r="D188" s="8" t="s">
         <v>563</v>
       </c>
+      <c r="E188" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
@@ -4860,6 +5985,9 @@
       <c r="D189" s="7" t="s">
         <v>566</v>
       </c>
+      <c r="E189" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
@@ -4873,6 +6001,9 @@
       </c>
       <c r="D190" s="8" t="s">
         <v>568</v>
+      </c>
+      <c r="E190" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
